--- a/biology/Zoologie/Geophis_dugesii/Geophis_dugesii.xlsx
+++ b/biology/Zoologie/Geophis_dugesii/Geophis_dugesii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Geophis dugesii  est une espèce de serpents de la famille des Dipsadidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Geophis dugesii  est une espèce de serpents de la famille des Dipsadidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Mexique. Elle se rencontre entre 1 500 et 2 100 m d'altitude dans les États d'Aguascalientes, du Jalisco, du Michoacán, du Sinaloa, de Durango et du Chihuahua[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Mexique. Elle se rencontre entre 1 500 et 2 100 m d'altitude dans les États d'Aguascalientes, du Jalisco, du Michoacán, du Sinaloa, de Durango et du Chihuahua.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (3 septembre 2013)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (3 septembre 2013) :
 Geophis dugesii aquilonaris Legler, 1959
 Geophis dugesii dugesii Bocourt, 1883</t>
         </is>
@@ -574,9 +590,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Alfredo Dugès[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Alfredo Dugès.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Bocourt, 1883, in Duméril, Bocourt &amp; Mocquard, 1870-1909 : Études sur les reptiles, p. 1-1012, in Recherches Zoologiques pour servir a l'Histoire de la Faune de l'Amérique Centrale et du Mexique. Mission Scientifique au Mexique et dans l'Amérique, Imprimerie Impériale, Paris.
 Legler, 1959 : A new snake of the genus Geophis, from Chihuahua, Mexico. University of Kansas Publications, Museum of Natural History, vol. 11, no 4, p. 327–334 (texte intégral).</t>
